--- a/img/深圳市腾讯计算机系统有限公司.xlsx
+++ b/img/深圳市腾讯计算机系统有限公司.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>根域名</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>审核日期</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>mandnsv1.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2024-07-22</t>
         </is>
       </c>
@@ -504,7 +514,8 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>2024-11-04</t>
         </is>
@@ -527,7 +538,8 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
@@ -550,7 +562,8 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
@@ -573,7 +586,8 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
@@ -596,7 +610,8 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
@@ -619,7 +634,8 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
@@ -642,7 +658,8 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
@@ -665,7 +682,8 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
@@ -688,7 +706,8 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
@@ -711,7 +730,8 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
@@ -734,7 +754,8 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
@@ -757,7 +778,8 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
@@ -780,7 +802,8 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
@@ -803,7 +826,8 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
@@ -826,7 +850,8 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
@@ -849,7 +874,8 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
@@ -872,7 +898,8 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
@@ -895,7 +922,8 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
@@ -918,7 +946,8 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>2024-06-03</t>
         </is>
@@ -941,7 +970,8 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>2024-04-15</t>
         </is>
@@ -970,6 +1000,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>dashenw.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>2024-04-07</t>
         </is>
       </c>
@@ -997,6 +1032,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>dashenw.cn</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2024-04-07</t>
         </is>
       </c>
@@ -1024,6 +1064,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>tchy.net</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2024-04-01</t>
         </is>
       </c>
@@ -1045,7 +1090,8 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
@@ -1074,6 +1120,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>qidian-cos.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2024-02-02</t>
         </is>
       </c>
@@ -1101,6 +1152,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>tencent-blackboard.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>2024-01-30</t>
         </is>
       </c>
@@ -1128,6 +1184,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>cloudstudio.net</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2024-01-08</t>
         </is>
       </c>
@@ -1155,6 +1216,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>codehub.cn</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2024-01-08</t>
         </is>
       </c>
@@ -1182,6 +1248,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>fusureum.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2024-01-04</t>
         </is>
       </c>
@@ -1209,6 +1280,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>tencenttds.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>2023-12-15</t>
         </is>
       </c>
@@ -1236,6 +1312,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>vod-pro.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>2023-12-12</t>
         </is>
       </c>
@@ -1263,6 +1344,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>fsightai.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>2023-11-17</t>
         </is>
       </c>
@@ -1290,6 +1376,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>tquic.net</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>2023-10-17</t>
         </is>
       </c>
@@ -1317,6 +1408,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>wxlivecdn.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>2023-09-11</t>
         </is>
       </c>
@@ -1344,6 +1440,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>titanm.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>2023-09-11</t>
         </is>
       </c>
@@ -1371,6 +1472,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>gmertc.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>2023-09-11</t>
         </is>
       </c>
@@ -1398,6 +1504,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>qq.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>2022-09-06</t>
         </is>
       </c>
@@ -1425,6 +1536,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>qdurl.cc</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>2023-09-11</t>
         </is>
       </c>
@@ -1452,6 +1568,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>tcbautomation.cn</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>2023-07-10</t>
         </is>
       </c>
@@ -1479,6 +1600,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>hayday-game.cn</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>2023-05-23</t>
         </is>
       </c>
@@ -1506,6 +1632,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>tencentcls.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>2023-04-23</t>
         </is>
       </c>
@@ -1533,6 +1664,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>tlivedns.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>2023-04-07</t>
         </is>
       </c>
@@ -1560,6 +1696,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>totope.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>2023-03-22</t>
         </is>
       </c>
@@ -1587,6 +1728,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>wxpayglobal.cn</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>2023-03-06</t>
         </is>
       </c>
@@ -1614,6 +1760,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>teoacc.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>2022-12-14</t>
         </is>
       </c>
@@ -1641,6 +1792,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>tliveapp.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>2022-11-03</t>
         </is>
       </c>
@@ -1668,6 +1824,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>tanlive.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>2022-10-13</t>
         </is>
       </c>
@@ -1695,6 +1856,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>carbonxprogram.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>2022-10-13</t>
         </is>
       </c>
@@ -1722,6 +1888,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>tcloudbasegateway.com</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>2022-10-13</t>
         </is>
       </c>
@@ -1749,6 +1920,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>opengame0.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>2022-09-22</t>
         </is>
       </c>
@@ -1776,6 +1952,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>rumt-zh.com</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>2022-08-17</t>
         </is>
       </c>
@@ -1803,6 +1984,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>tencentcloudbase.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>2022-08-09</t>
         </is>
       </c>
@@ -1830,6 +2016,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>pagedoo.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>2022-07-01</t>
         </is>
       </c>
@@ -1857,6 +2048,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>vodplayvideo.net</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>2022-05-19</t>
         </is>
       </c>
@@ -1884,6 +2080,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>txlivecdn.com</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>2022-05-10</t>
         </is>
       </c>
@@ -1911,6 +2112,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>qlivecdn.com</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>2022-05-10</t>
         </is>
       </c>
@@ -1938,6 +2144,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>qlivecdn.cn</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>2022-05-10</t>
         </is>
       </c>
@@ -1965,6 +2176,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>tdnsdlovs4.com</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>2022-03-22</t>
         </is>
       </c>
@@ -1992,6 +2208,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>gcloudsvcs.com</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>2022-04-08</t>
         </is>
       </c>
@@ -2019,6 +2240,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>kefu01.com</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>2022-03-08</t>
         </is>
       </c>
@@ -2046,6 +2272,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>tdnsliveovs1.com</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>2022-03-02</t>
         </is>
       </c>
@@ -2073,6 +2304,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>tdnsstic2.cn</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>2022-03-22</t>
         </is>
       </c>
@@ -2100,6 +2336,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>my-imcloud.com</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>2022-03-08</t>
         </is>
       </c>
@@ -2127,6 +2368,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>wujicode.cn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>2022-03-08</t>
         </is>
       </c>
@@ -2154,6 +2400,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>randongada.com</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>2022-03-22</t>
         </is>
       </c>
@@ -2181,6 +2432,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>pdm.tech</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>2022-02-07</t>
         </is>
       </c>
@@ -2208,6 +2464,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>myoed.com</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -2235,6 +2496,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>teodns.com</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>2022-03-02</t>
         </is>
       </c>
@@ -2262,6 +2528,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>2022-02-17</t>
         </is>
       </c>
@@ -2289,6 +2560,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -2316,6 +2592,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>tdnslive4.cn</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>2022-01-24</t>
         </is>
       </c>
@@ -2343,6 +2624,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>cloudcdnv1.cn</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -2370,6 +2656,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>tliveplay.com</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>2022-01-24</t>
         </is>
       </c>
@@ -2397,6 +2688,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>tdnsvod1.cn</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>2021-12-30</t>
         </is>
       </c>
@@ -2424,6 +2720,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>tdnssp4.cn</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>2022-01-24</t>
         </is>
       </c>
@@ -2451,6 +2752,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>tdnsvod4.cn</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>2022-01-24</t>
         </is>
       </c>
@@ -2478,6 +2784,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>my-qcloud.com</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>2020-04-13</t>
         </is>
       </c>
@@ -2505,6 +2816,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>tlivesource.com</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>2022-01-07</t>
         </is>
       </c>
@@ -2532,6 +2848,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>govqcloud.com</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -2559,6 +2880,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>essurl.com</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -2586,6 +2912,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>vod-qcloud.com</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>2021-12-30</t>
         </is>
       </c>
@@ -2613,6 +2944,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>tmcdl.cn</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>2021-12-30</t>
         </is>
       </c>
@@ -2640,6 +2976,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>2019-07-03</t>
         </is>
       </c>
@@ -2667,6 +3008,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>tdnsstic1.cn</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>2022-01-07</t>
         </is>
       </c>
@@ -2694,6 +3040,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>tdnsdl1.cn</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>2021-12-30</t>
         </is>
       </c>
@@ -2721,6 +3072,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>gdtimg.com</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>2017-11-23</t>
         </is>
       </c>
@@ -2748,6 +3104,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>tdnslive1.cn</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>2021-12-30</t>
         </is>
       </c>
@@ -2775,6 +3136,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>acimg.cn</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>2019-11-14</t>
         </is>
       </c>
@@ -2802,6 +3168,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>tefscloud.com</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -2829,6 +3200,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>qqopenapp.com</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -2856,6 +3232,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>tsepcn.com</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>2020-12-09</t>
         </is>
       </c>
@@ -2883,6 +3264,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>pn1waq.com</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>2017-10-13</t>
         </is>
       </c>
@@ -2910,6 +3296,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>zenvideo.cn</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>2021-11-12</t>
         </is>
       </c>
@@ -2937,6 +3328,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>fymallqa8.com</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -2964,6 +3360,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>wsstplay.com</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>2020-11-24</t>
         </is>
       </c>
@@ -2991,6 +3392,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>gcloudsdk.com</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>2020-04-13</t>
         </is>
       </c>
@@ -3018,6 +3424,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>ihappystudio.com</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>2019-08-28</t>
         </is>
       </c>
@@ -3045,6 +3456,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>iot-tencent.com</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -3072,6 +3488,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>nintendoswitch.cn</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>2019-05-14</t>
         </is>
       </c>
@@ -3099,6 +3520,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>wxworklive.com</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>2020-11-30</t>
         </is>
       </c>
@@ -3126,6 +3552,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>wxcloudrun.com</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>2021-12-07</t>
         </is>
       </c>
@@ -3153,6 +3584,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>iemiq.com</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -3180,6 +3616,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>ma.run</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -3207,6 +3648,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>t-tlearning.com</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>2019-11-14</t>
         </is>
       </c>
@@ -3234,6 +3680,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>2023-12-01</t>
         </is>
       </c>
@@ -3261,6 +3712,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>weui.io</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>2016-05-26</t>
         </is>
       </c>
@@ -3288,6 +3744,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>joox.com</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -3315,6 +3776,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>fymallqa5.com</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -3342,6 +3808,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>tfogc.com</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>2021-01-21</t>
         </is>
       </c>
@@ -3369,6 +3840,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>mylightsite.com</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>2017-11-03</t>
         </is>
       </c>
@@ -3396,6 +3872,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>wkdimg.com</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>2023-10-23</t>
         </is>
       </c>
@@ -3423,6 +3904,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>brawlstars.cn</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>2020-05-25</t>
         </is>
       </c>
@@ -3450,6 +3936,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>com.hk</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>2017-08-01</t>
         </is>
       </c>
@@ -3477,6 +3968,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>wesingapp.com</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>2016-11-10</t>
         </is>
       </c>
@@ -3504,6 +4000,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>um.run</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -3531,6 +4032,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>upqzfilebk.com</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -3558,6 +4064,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>tencenttdmq.com</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>2021-05-12</t>
         </is>
       </c>
@@ -3585,6 +4096,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>fusure.com</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -3612,6 +4128,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>fymall8.com</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -3639,6 +4160,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>gameloop.com</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>2020-12-09</t>
         </is>
       </c>
@@ -3666,6 +4192,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>igcdn.cn</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -3693,6 +4224,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>kwsou.cn</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -3720,6 +4256,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>xgz2.cn</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -3747,6 +4288,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>mszdld.net</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>2020-09-02</t>
         </is>
       </c>
@@ -3774,6 +4320,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>wetvinfo.com</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>2020-07-26</t>
         </is>
       </c>
@@ -3801,6 +4352,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>weixinsxy.com</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -3828,6 +4384,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>tencentciam.com</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>2021-01-21</t>
         </is>
       </c>
@@ -3855,6 +4416,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
+          <t>qdwebim.com</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>2020-12-30</t>
         </is>
       </c>
@@ -3882,6 +4448,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>techo.chat</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -3909,6 +4480,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
+          <t>intlgame.cn</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>2020-12-09</t>
         </is>
       </c>
@@ -3936,6 +4512,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>scl0.cn</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>2020-11-24</t>
         </is>
       </c>
@@ -3963,6 +4544,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>xgz1.cn</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -3990,6 +4576,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>tamaegis.com</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>2020-03-29</t>
         </is>
       </c>
@@ -4017,6 +4608,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>proximabeta.com</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>2019-02-26</t>
         </is>
       </c>
@@ -4044,6 +4640,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>tencentcloudns.com</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>2017-12-06</t>
         </is>
       </c>
@@ -4071,6 +4672,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
+          <t>qzoneapp.com</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -4098,6 +4704,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
+          <t>qqumall.com</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>2017-04-14</t>
         </is>
       </c>
@@ -4125,6 +4736,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
+          <t>developwechat.com</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -4152,6 +4768,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>wxmpurl.cn</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>2021-04-19</t>
         </is>
       </c>
@@ -4179,6 +4800,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
+          <t>tencentidaas.com</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
           <t>2021-02-18</t>
         </is>
       </c>
@@ -4206,6 +4832,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>fsllq.com</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -4233,6 +4864,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
+          <t>labycore.cn</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -4260,6 +4896,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
+          <t>g0wx.cn</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>2020-11-11</t>
         </is>
       </c>
@@ -4287,6 +4928,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>sccreator.cn</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>2020-10-27</t>
         </is>
       </c>
@@ -4314,6 +4960,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
+          <t>xgz0.cn</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>2020-09-14</t>
         </is>
       </c>
@@ -4341,6 +4992,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
+          <t>exmailgz.com</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -4368,6 +5024,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>fymallqa0.com</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -4395,6 +5056,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>haydaypop.cn</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>2020-11-30</t>
         </is>
       </c>
@@ -4422,6 +5088,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
+          <t>cloudsite.vip</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>2020-10-09</t>
         </is>
       </c>
@@ -4449,6 +5120,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
+          <t>urldx.cn</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -4476,6 +5152,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>xuz0.cn</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>2020-09-14</t>
         </is>
       </c>
@@ -4503,6 +5184,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>taotao.com</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -4530,6 +5216,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -4557,6 +5248,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
+          <t>mh2u.cn</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>2020-06-20</t>
         </is>
       </c>
@@ -4584,6 +5280,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>tencentcos.com</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
           <t>2019-12-16</t>
         </is>
       </c>
@@ -4611,6 +5312,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>nextstudios.com</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>2019-09-06</t>
         </is>
       </c>
@@ -4638,6 +5344,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
+          <t>weisurvey.com</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>2019-03-29</t>
         </is>
       </c>
@@ -4665,6 +5376,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
+          <t>weixin.com</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>2017-11-23</t>
         </is>
       </c>
@@ -4692,6 +5408,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
+          <t>qzone.com</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -4719,6 +5440,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
+          <t>developweixin.com</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -4746,6 +5472,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>gtimg.com</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -4773,6 +5504,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>tencentcos.cn</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>2021-09-26</t>
         </is>
       </c>
@@ -4800,6 +5536,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
+          <t>polarismesh.cn</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>2021-08-10</t>
         </is>
       </c>
@@ -4827,6 +5568,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
+          <t>qcloudcdn.cn</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>2015-10-22</t>
         </is>
       </c>
@@ -4854,6 +5600,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
+          <t>tencentcs.cn</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>2021-09-09</t>
         </is>
       </c>
@@ -4881,6 +5632,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
+          <t>neuroxiv.net</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -4908,6 +5664,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
+          <t>vurl3.vip</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -4935,6 +5696,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
+          <t>tencenteiam.com</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>2021-01-21</t>
         </is>
       </c>
@@ -4962,6 +5728,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
+          <t>essurl.cn</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -4989,6 +5760,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
+          <t>sgurl.cn</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -5016,6 +5792,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
+          <t>dllzff.cn</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -5043,6 +5824,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>tencentsuite.com</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>2020-07-10</t>
         </is>
       </c>
@@ -5070,6 +5856,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
+          <t>itopsdk.com</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>2019-02-26</t>
         </is>
       </c>
@@ -5097,6 +5888,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
+          <t>tencentdevices.com</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>2017-12-27</t>
         </is>
       </c>
@@ -5124,6 +5920,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
+          <t>qcloudimg.com</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -5151,6 +5952,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
+          <t>moneydata.hk</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>2015-10-14</t>
         </is>
       </c>
@@ -5178,6 +5984,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
+          <t>gcloudcs.com</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>2015-09-21</t>
         </is>
       </c>
@@ -5205,6 +6016,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
+          <t>cdntip.com</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -5232,6 +6048,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
+          <t>supercellcommunity.cn</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>2021-02-18</t>
         </is>
       </c>
@@ -5259,6 +6080,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
+          <t>tencentrio.com</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -5286,6 +6112,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
+          <t>uisa0.cn</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>2020-11-11</t>
         </is>
       </c>
@@ -5313,6 +6144,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
+          <t>tencent-cloud.net</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -5340,6 +6176,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
+          <t>tcdnos.com</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>2020-08-02</t>
         </is>
       </c>
@@ -5367,6 +6208,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>apigwtencent.com</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>2020-03-04</t>
         </is>
       </c>
@@ -5394,6 +6240,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
+          <t>tdnsv15.com</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>2018-12-26</t>
         </is>
       </c>
@@ -5421,6 +6272,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
           <t>2018-08-09</t>
         </is>
       </c>
@@ -5448,6 +6304,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
+          <t>spark-page.com</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>2018-05-07</t>
         </is>
       </c>
@@ -5475,6 +6336,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
+          <t>dcloudstc.com</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
           <t>2018-04-23</t>
         </is>
       </c>
@@ -5502,6 +6368,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
+          <t>ugdtimg.com</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>2017-11-23</t>
         </is>
       </c>
@@ -5529,6 +6400,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
+          <t>cdntips.net</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
           <t>2017-05-05</t>
         </is>
       </c>
@@ -5556,6 +6432,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
+          <t>wetest.cn</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>2016-09-13</t>
         </is>
       </c>
@@ -5583,6 +6464,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
+          <t>servicewechat.com</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -5610,6 +6496,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
+          <t>voovlive.com</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -5637,6 +6528,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
+          <t>dayugslb.com</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
           <t>2016-05-13</t>
         </is>
       </c>
@@ -5664,6 +6560,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
+          <t>mmecimage.cn</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
           <t>2021-12-07</t>
         </is>
       </c>
@@ -5691,6 +6592,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
+          <t>ym.run</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -5718,6 +6624,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
+          <t>ztnwork.com</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -5745,6 +6656,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
+          <t>computeinit.com</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
           <t>2021-04-08</t>
         </is>
       </c>
@@ -5772,6 +6688,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
+          <t>safejmp.net</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -5799,6 +6720,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
           <t>2021-02-18</t>
         </is>
       </c>
@@ -5826,6 +6752,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
+          <t>tencentservicewatcher.com</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
           <t>2021-01-21</t>
         </is>
       </c>
@@ -5853,6 +6784,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
+          <t>xqk1.cn</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
           <t>2020-10-09</t>
         </is>
       </c>
@@ -5880,6 +6816,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
+          <t>wedev.cool</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -5907,6 +6848,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
+          <t>tencentgames.us</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -5934,6 +6880,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
+          <t>tendbcluster.cn</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
           <t>2020-08-24</t>
         </is>
       </c>
@@ -5961,6 +6912,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
+          <t>tengmed.com</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
           <t>2020-10-14</t>
         </is>
       </c>
@@ -5988,6 +6944,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
+          <t>fymallqa4.com</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -6015,6 +6976,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
+          <t>fymall7.com</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -6042,6 +7008,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
+          <t>qclouder.com</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -6069,6 +7040,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
+          <t>tencentconsulting.com</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>2020-09-14</t>
         </is>
       </c>
@@ -6096,6 +7072,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
+          <t>mszdld.cn</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
           <t>2020-09-02</t>
         </is>
       </c>
@@ -6123,6 +7104,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
+          <t>tendbcluster.net</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
           <t>2020-08-24</t>
         </is>
       </c>
@@ -6150,6 +7136,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
+          <t>wnsqzonebk.com</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -6177,6 +7168,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
+          <t>twsapp.com</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -6204,6 +7200,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
+          <t>qmail.com</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -6231,6 +7232,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
+          <t>net.cn</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -6258,6 +7264,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
           <t>2020-07-26</t>
         </is>
       </c>
@@ -6285,6 +7296,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
+          <t>qcloudecdn.com</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
           <t>2020-05-25</t>
         </is>
       </c>
@@ -6312,6 +7328,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
+          <t>qcloudtiw.com</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
           <t>2020-03-29</t>
         </is>
       </c>
@@ -6339,6 +7360,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
+          <t>tdnsv7.com</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
           <t>2018-12-26</t>
         </is>
       </c>
@@ -6366,6 +7392,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
+          <t>lexiang-asset.com</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
           <t>2018-07-27</t>
         </is>
       </c>
@@ -6393,6 +7424,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
+          <t>gtgres.com</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
           <t>2018-07-27</t>
         </is>
       </c>
@@ -6420,6 +7456,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
+          <t>ovscdns.com</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
           <t>2017-04-14</t>
         </is>
       </c>
@@ -6447,6 +7488,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
+          <t>tcdnlive.com</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
           <t>2017-03-28</t>
         </is>
       </c>
@@ -6474,6 +7520,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
+          <t>tencentads.cn</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
           <t>2016-05-26</t>
         </is>
       </c>
@@ -6501,6 +7552,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
+          <t>tencentsmh.cn</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
           <t>2021-10-13</t>
         </is>
       </c>
@@ -6528,6 +7584,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
+          <t>fymallqa7.com</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -6555,6 +7616,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
+          <t>fymall0.com</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -6582,6 +7648,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>fymall3.com</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -6609,6 +7680,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
+          <t>srmkp.cn</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>2020-10-27</t>
         </is>
       </c>
@@ -6636,6 +7712,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
+          <t>xqz0.cn</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>2020-09-14</t>
         </is>
       </c>
@@ -6663,6 +7744,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
+          <t>cdn-go.cn</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
           <t>2019-11-14</t>
         </is>
       </c>
@@ -6690,6 +7776,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
+          <t>wetv.vip</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
           <t>2019-10-29</t>
         </is>
       </c>
@@ -6717,6 +7808,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
+          <t>qpic.cn</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -6744,6 +7840,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
+          <t>tencentcloudclub.com</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
           <t>2017-08-01</t>
         </is>
       </c>
@@ -6771,6 +7872,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
+          <t>mjxpay.com</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
           <t>2021-03-17</t>
         </is>
       </c>
@@ -6798,6 +7904,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
+          <t>adshonor.net</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>2021-03-04</t>
         </is>
       </c>
@@ -6825,6 +7936,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
+          <t>fymallqa9.com</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -6852,6 +7968,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>vurl1.cn</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>2021-01-12</t>
         </is>
       </c>
@@ -6879,6 +8000,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
+          <t>mmbizurl.cn</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -6906,6 +8032,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
+          <t>accessibility-union.cn</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
           <t>2024-01-31</t>
         </is>
       </c>
@@ -6933,6 +8064,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
+          <t>wxaurl.cn</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
           <t>2021-04-19</t>
         </is>
       </c>
@@ -6960,6 +8096,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
+          <t>fymall6.com</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -6987,6 +8128,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
+          <t>myqcloud.com</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -7014,6 +8160,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
+          <t>tlivepush.com</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
           <t>2020-12-23</t>
         </is>
       </c>
@@ -7041,6 +8192,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
+          <t>techo.pub</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -7068,6 +8224,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
+          <t>nrzb0.com</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
           <t>2020-11-11</t>
         </is>
       </c>
@@ -7095,6 +8256,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
+          <t>007url.cn</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
           <t>2020-09-25</t>
         </is>
       </c>
@@ -7122,6 +8288,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
+          <t>org.cn</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -7149,6 +8320,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
+          <t>lexiang-asset.net</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
           <t>2018-09-25</t>
         </is>
       </c>
@@ -7176,6 +8352,11 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
+          <t>tdnsv4.com</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
           <t>2018-09-11</t>
         </is>
       </c>
@@ -7203,6 +8384,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
+          <t>yximg.cn</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
           <t>2017-12-27</t>
         </is>
       </c>
@@ -7230,6 +8416,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
+          <t>yuntus.com</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
           <t>2017-09-22</t>
         </is>
       </c>
@@ -7257,6 +8448,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
+          <t>net.cn</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
           <t>2017-08-24</t>
         </is>
       </c>
@@ -7284,6 +8480,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
+          <t>spcdntip.com</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
           <t>2017-03-28</t>
         </is>
       </c>
@@ -7311,6 +8512,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
+          <t>tcdnvod.com</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
           <t>2017-02-28</t>
         </is>
       </c>
@@ -7338,6 +8544,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
+          <t>discuz.com</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
           <t>2022-09-06</t>
         </is>
       </c>
@@ -7365,6 +8576,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
+          <t>bkapps.com</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -7392,6 +8608,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
+          <t>vurl.tech</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -7419,6 +8640,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
+          <t>vurl.link</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
           <t>2021-02-01</t>
         </is>
       </c>
@@ -7446,6 +8672,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
+          <t>tencentidentity.com</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
           <t>2021-01-12</t>
         </is>
       </c>
@@ -7473,6 +8704,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
+          <t>wechat.design</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
           <t>2020-11-11</t>
         </is>
       </c>
@@ -7500,6 +8736,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
+          <t>openapp.run</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
           <t>2020-10-09</t>
         </is>
       </c>
@@ -7527,6 +8768,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
+          <t>qqhaoma.net</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -7554,6 +8800,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
+          <t>starlakelab.com</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -7581,6 +8832,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
+          <t>haiwaioo.com</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
           <t>2020-09-02</t>
         </is>
       </c>
@@ -7608,6 +8864,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
+          <t>mqqurl.com</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
           <t>2023-12-08</t>
         </is>
       </c>
@@ -7635,6 +8896,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
           <t>2022-09-07</t>
         </is>
       </c>
@@ -7662,6 +8928,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
+          <t>urlshare.cn</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -7689,6 +8960,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
+          <t>tapd.cn</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -7716,6 +8992,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
+          <t>videoyx.com</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
           <t>2020-03-23</t>
         </is>
       </c>
@@ -7743,6 +9024,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
+          <t>tgovcloud.com</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
           <t>2020-02-01</t>
         </is>
       </c>
@@ -7770,6 +9056,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
+          <t>vcloudvod.com</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
           <t>2018-04-23</t>
         </is>
       </c>
@@ -7797,6 +9088,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
+          <t>fyeds0.com</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
           <t>2023-03-15</t>
         </is>
       </c>
@@ -7824,6 +9120,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
+          <t>apdcdn.com</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
           <t>2018-01-30</t>
         </is>
       </c>
@@ -7851,6 +9152,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
+          <t>com.cn</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
           <t>2017-05-22</t>
         </is>
       </c>
@@ -7878,6 +9184,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
+          <t>qcloud.la</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
           <t>2016-11-04</t>
         </is>
       </c>
@@ -7905,6 +9216,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
+          <t>serviceweixin.com</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
           <t>2016-07-26</t>
         </is>
       </c>
@@ -7932,6 +9248,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
+          <t>tencentads.com</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
           <t>2020-04-21</t>
         </is>
       </c>
@@ -7959,6 +9280,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
+          <t>imqq.com</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -7986,6 +9312,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
+          <t>tisi.org</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -8013,6 +9344,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
+          <t>roblox.cn</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
           <t>2021-09-26</t>
         </is>
       </c>
@@ -8040,6 +9376,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
+          <t>fymallqa6.com</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
           <t>2021-02-07</t>
         </is>
       </c>
@@ -8067,6 +9408,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>shuame.com</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -8094,6 +9440,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
+          <t>romzj.com</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
           <t>2020-06-03</t>
         </is>
       </c>
@@ -8121,6 +9472,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
+          <t>fymall4.com</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -8148,6 +9504,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
+          <t>fymall1.com</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
           <t>2021-01-27</t>
         </is>
       </c>
@@ -8175,6 +9536,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
+          <t>qqmail.com</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -8202,6 +9568,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
+          <t>tendis.cn</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
           <t>2020-12-23</t>
         </is>
       </c>
@@ -8229,6 +9600,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
+          <t>tlivecdn.com</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -8256,6 +9632,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
+          <t>tefscloud.net</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
           <t>2020-12-10</t>
         </is>
       </c>
@@ -8283,6 +9664,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
+          <t>zjdwz.cn</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -8310,6 +9696,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
+          <t>xqd1.cn</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -8337,6 +9728,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
+          <t>xqa1.cn</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
           <t>2020-09-21</t>
         </is>
       </c>
@@ -8364,6 +9760,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
+          <t>weiyun.com</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
           <t>2015-04-29</t>
         </is>
       </c>
@@ -8391,6 +9792,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
+          <t>cloudbase.net</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
           <t>2020-03-04</t>
         </is>
       </c>
@@ -8418,6 +9824,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
+          <t>tcloudbaseapp.com</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
           <t>2019-09-06</t>
         </is>
       </c>
@@ -8445,6 +9856,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
+          <t>tencentwsd.cn</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
           <t>2019-09-06</t>
         </is>
       </c>
@@ -8471,6 +9887,11 @@
         </is>
       </c>
       <c r="E301" t="inlineStr">
+        <is>
+          <t>cfogc.com</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
         <is>
           <t>2021-01-21</t>
         </is>
